--- a/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Full_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="40" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -56,8 +56,9 @@
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
     <sheet name="BlockGlobalClient" sheetId="47" r:id="rId43"/>
     <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId44"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId45"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId46"/>
+    <sheet name="AmendGlobalClient" sheetId="49" r:id="rId45"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId46"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1053">
   <si>
     <t>Description</t>
   </si>
@@ -3206,10 +3207,28 @@
     <t>Brand Name</t>
   </si>
   <si>
-    <t>103558001</t>
-  </si>
-  <si>
-    <t>Radisson Temple Bay</t>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Tax No</t>
+  </si>
+  <si>
+    <t>Company Reg No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter Party BFC </t>
+  </si>
+  <si>
+    <t>India Client</t>
+  </si>
+  <si>
+    <t>123dgjj6789</t>
+  </si>
+  <si>
+    <t>Radisson Bengaluru Citi Centre</t>
+  </si>
+  <si>
+    <t>103557001</t>
   </si>
 </sst>
 </file>
@@ -11072,7 +11091,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -11094,7 +11113,7 @@
         <v>1042</v>
       </c>
       <c r="B2">
-        <v>103558</v>
+        <v>103557</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11118,8 +11137,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11141,7 +11160,7 @@
         <v>1042</v>
       </c>
       <c r="B2">
-        <v>103558</v>
+        <v>103557</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11157,7 +11176,7 @@
         <v>1043</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11165,7 +11184,7 @@
         <v>1044</v>
       </c>
       <c r="B5" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -11175,6 +11194,89 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2">
+        <v>103558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -11407,7 +11509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Full_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Full_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3981,8 +3981,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>379</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11091,7 +11091,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -11517,7 +11517,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Full_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Full_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,8 +57,14 @@
     <sheet name="BlockGlobalClient" sheetId="47" r:id="rId43"/>
     <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId44"/>
     <sheet name="AmendGlobalClient" sheetId="49" r:id="rId45"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId46"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId47"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId46"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId47"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId48"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId49"/>
+    <sheet name="BlockGlobalVendor" sheetId="54" r:id="rId50"/>
+    <sheet name="BlockCompanyVendor" sheetId="55" r:id="rId51"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId52"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId53"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="1066">
   <si>
     <t>Description</t>
   </si>
@@ -1236,12 +1242,6 @@
     <t>ZZ1707_RB101_TM-CP</t>
   </si>
   <si>
-    <t>E1003</t>
-  </si>
-  <si>
-    <t>Adpart</t>
-  </si>
-  <si>
     <t>Client Billable Time</t>
   </si>
   <si>
@@ -3229,13 +3229,58 @@
   </si>
   <si>
     <t>103557001</t>
+  </si>
+  <si>
+    <t>103132</t>
+  </si>
+  <si>
+    <t>103132002</t>
+  </si>
+  <si>
+    <t>Times Of India</t>
+  </si>
+  <si>
+    <t>Product Number</t>
+  </si>
+  <si>
+    <t>103132002001</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>NewCamlinProduct</t>
+  </si>
+  <si>
+    <t>103115001001</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>30 SECONDS OF FAME</t>
+  </si>
+  <si>
+    <t>CompanyVendor Number</t>
+  </si>
+  <si>
+    <t>CompanyVendor Name</t>
+  </si>
+  <si>
+    <t>AARUN AASHIYANA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3280,6 +3325,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3495,7 +3547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3695,6 +3747,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4004,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>1010</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4054,7 +4113,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="31"/>
@@ -4069,7 +4128,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4111,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -4140,7 +4199,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4169,7 +4228,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4243,7 +4302,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -4272,7 +4331,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -4287,7 +4346,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4302,7 +4361,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4331,7 +4390,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -4361,7 +4420,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -4501,7 +4560,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="26"/>
@@ -4517,7 +4576,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4565,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
@@ -4596,7 +4655,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4628,7 +4687,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4708,7 +4767,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="46"/>
@@ -4740,7 +4799,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="46"/>
@@ -4756,7 +4815,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4772,7 +4831,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4804,7 +4863,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="59"/>
@@ -4836,7 +4895,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -4868,7 +4927,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4884,7 +4943,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5310,7 +5369,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5318,7 +5377,7 @@
         <v>214</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5722,27 +5781,27 @@
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -5773,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5793,7 +5852,7 @@
         <v>251</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5824,7 +5883,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5844,7 +5903,7 @@
         <v>251</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5934,10 +5993,10 @@
         <v>236</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>146</v>
@@ -5952,10 +6011,10 @@
         <v>237</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>150</v>
@@ -5970,10 +6029,10 @@
         <v>238</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="V1" s="27" t="s">
         <v>154</v>
@@ -5988,10 +6047,10 @@
         <v>239</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>158</v>
@@ -6006,10 +6065,10 @@
         <v>240</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AH1" s="27" t="s">
         <v>162</v>
@@ -6024,10 +6083,10 @@
         <v>241</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>166</v>
@@ -6042,10 +6101,10 @@
         <v>242</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>170</v>
@@ -6060,10 +6119,10 @@
         <v>243</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>174</v>
@@ -6078,10 +6137,10 @@
         <v>244</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="BF1" s="27" t="s">
         <v>178</v>
@@ -6096,10 +6155,10 @@
         <v>245</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -6107,14 +6166,14 @@
         <v>1707</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -6123,10 +6182,10 @@
         <v>500</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -6216,13 +6275,13 @@
         <v>236</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>146</v>
@@ -6237,13 +6296,13 @@
         <v>237</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>150</v>
@@ -6258,13 +6317,13 @@
         <v>238</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>154</v>
@@ -6279,13 +6338,13 @@
         <v>239</v>
       </c>
       <c r="AC1" s="27" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AD1" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AF1" s="27" t="s">
         <v>158</v>
@@ -6300,13 +6359,13 @@
         <v>240</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AM1" s="27" t="s">
         <v>162</v>
@@ -6321,13 +6380,13 @@
         <v>241</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>166</v>
@@ -6342,13 +6401,13 @@
         <v>242</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AZ1" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="BA1" s="27" t="s">
         <v>170</v>
@@ -6363,13 +6422,13 @@
         <v>243</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="BF1" s="27" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="BH1" s="27" t="s">
         <v>174</v>
@@ -6384,13 +6443,13 @@
         <v>244</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="BM1" s="27" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="BN1" s="27" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="BO1" s="27" t="s">
         <v>178</v>
@@ -6405,13 +6464,13 @@
         <v>245</v>
       </c>
       <c r="BS1" s="27" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="BT1" s="27" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="BU1" s="27" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
@@ -6419,16 +6478,16 @@
         <v>1707</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -6437,13 +6496,13 @@
         <v>500</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -6474,7 +6533,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6482,7 +6541,7 @@
         <v>247</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -6513,7 +6572,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6521,7 +6580,7 @@
         <v>247</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -6858,15 +6917,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B2" s="30">
         <v>83.62</v>
@@ -6874,7 +6933,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B3" s="30">
         <v>1.39</v>
@@ -6882,7 +6941,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B4" s="30">
         <v>4.72</v>
@@ -6890,7 +6949,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B5" s="30">
         <v>323363078.55000001</v>
@@ -6898,7 +6957,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B6" s="30">
         <v>323325.90999999997</v>
@@ -6906,7 +6965,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B7" s="30">
         <v>1.1100000000000001</v>
@@ -6922,7 +6981,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B9" s="30">
         <v>4.55</v>
@@ -6930,7 +6989,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B10" s="30">
         <v>135.61000000000001</v>
@@ -6938,7 +6997,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B11" s="30">
         <v>589.11</v>
@@ -6946,7 +7005,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B12" s="30">
         <v>2.19</v>
@@ -6954,7 +7013,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B13" s="30">
         <v>430.35</v>
@@ -6962,7 +7021,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B14" s="30">
         <v>53.58</v>
@@ -6970,170 +7029,170 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7141,879 +7200,879 @@
         <v>117</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -8124,7 +8183,7 @@
         <v>268</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>258</v>
@@ -8168,16 +8227,16 @@
         <v>1707105342</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -8215,7 +8274,7 @@
         <v>269</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -8253,7 +8312,7 @@
         <v>269</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -8730,28 +8789,28 @@
         <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
         <v>347</v>
@@ -8759,47 +8818,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
         <v>347</v>
@@ -8807,183 +8866,183 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B33" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B35" t="s">
         <v>347</v>
@@ -8991,31 +9050,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B39" t="s">
         <v>347</v>
@@ -9023,7 +9082,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B40" t="s">
         <v>347</v>
@@ -9031,71 +9090,71 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B41" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B43" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B44" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B48" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B49" t="s">
         <v>347</v>
@@ -9103,191 +9162,191 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B52" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B53" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B54" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B56" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B58" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B59" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B61" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B63" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B64" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B67" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B69" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B70" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B73" t="s">
         <v>347</v>
@@ -9295,15 +9354,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B74" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s">
         <v>347</v>
@@ -9311,183 +9370,183 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B79" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B81" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B82" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B87" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B92" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B93" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B96" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B97" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B98" t="s">
         <v>347</v>
@@ -9495,359 +9554,359 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B99" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B100" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B101" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B102" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B103" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B104" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B105" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B107" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B108" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B109" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B110" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B111" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B112" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B113" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B114" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B115" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B116" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B117" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B118" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B119" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B120" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B121" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B122" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B123" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B124" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B125" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B126" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B127" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B128" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B129" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B130" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B131" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B132" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B133" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B134" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B135" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B136" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B137" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B138" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B139" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B140" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B141" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B142" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B143" t="s">
         <v>347</v>
@@ -9855,47 +9914,47 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B144" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B145" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B146" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B147" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B148" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B149" t="s">
         <v>347</v>
@@ -9903,159 +9962,159 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B150" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B151" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B152" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B153" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B154" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B155" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B156" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B157" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B158" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B159" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B160" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B161" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B162" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B163" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B164" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B165" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B166" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B167" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B168" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B169" t="s">
         <v>347</v>
@@ -10063,47 +10122,47 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B170" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B171" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B172" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B173" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B174" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B175" t="s">
         <v>347</v>
@@ -10111,15 +10170,15 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B176" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B177" t="s">
         <v>347</v>
@@ -10127,63 +10186,63 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B178" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B179" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B180" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B181" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B182" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B183" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B184" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B185" t="s">
         <v>347</v>
@@ -10191,47 +10250,47 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B186" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B187" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B188" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B189" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B190" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B191" t="s">
         <v>347</v>
@@ -10239,135 +10298,135 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B192" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B193" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B194" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B195" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B197" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B198" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B199" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B201" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B202" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B203" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B204" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B205" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B206" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B207" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B208" t="s">
         <v>347</v>
@@ -10375,167 +10434,167 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B209" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B211" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B212" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B213" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B214" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B215" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B216" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B217" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B218" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B219" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B220" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B221" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B222" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B223" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B224" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B225" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B226" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B227" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B228" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B229" t="s">
         <v>347</v>
@@ -10543,71 +10602,71 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B230" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B231" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B232" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B233" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B234" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B235" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B236" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B237" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B238" t="s">
         <v>347</v>
@@ -10615,47 +10674,47 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B239" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B240" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B241" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B242" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B243" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B244" t="s">
         <v>347</v>
@@ -10663,47 +10722,47 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B245" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B246" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B247" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B248" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B249" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B250" t="s">
         <v>347</v>
@@ -10711,31 +10770,31 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B251" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B252" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B253" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B254" t="s">
         <v>347</v>
@@ -11110,7 +11169,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B2">
         <v>103557</v>
@@ -11121,7 +11180,7 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -11157,7 +11216,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B2">
         <v>103557</v>
@@ -11168,23 +11227,23 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -11219,7 +11278,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B2">
         <v>103558</v>
@@ -11230,15 +11289,15 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11251,23 +11310,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B6" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B7" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -11279,229 +11338,59 @@
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="39">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
         <v>1707</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="97" t="s">
-        <v>964</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>965</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>966</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>967</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>968</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>969</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>970</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>971</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>972</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1053</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11512,138 +11401,168 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="100" t="s">
-        <v>182</v>
+      <c r="A1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>1006</v>
+      <c r="A2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>1007</v>
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="1">
+        <v>103115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>1008</v>
+      <c r="A4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>1019</v>
+      <c r="A5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="106">
+        <v>103132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -11881,6 +11800,508 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3">
+        <v>107433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B3">
+        <v>107444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="39">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>962</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>963</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>964</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>965</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>966</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>967</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>968</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>969</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>970</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -12097,7 +12518,7 @@
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12162,10 +12583,10 @@
         <v>145</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>146</v>
@@ -12180,10 +12601,10 @@
         <v>149</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>150</v>
@@ -12198,10 +12619,10 @@
         <v>153</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="V1" s="27" t="s">
         <v>154</v>
@@ -12216,10 +12637,10 @@
         <v>157</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>158</v>
@@ -12234,10 +12655,10 @@
         <v>161</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AH1" s="27" t="s">
         <v>162</v>
@@ -12252,10 +12673,10 @@
         <v>165</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>166</v>
@@ -12270,10 +12691,10 @@
         <v>169</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>170</v>
@@ -12288,10 +12709,10 @@
         <v>173</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>174</v>
@@ -12306,10 +12727,10 @@
         <v>177</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="BF1" s="27" t="s">
         <v>178</v>
@@ -12324,10 +12745,10 @@
         <v>181</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -12335,7 +12756,7 @@
         <v>1707</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C2" s="61" t="s">
         <v>387</v>
@@ -12344,7 +12765,7 @@
         <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -12359,39 +12780,21 @@
         <v>998312</v>
       </c>
       <c r="J2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="N2">
         <v>998312</v>
       </c>
       <c r="O2">
-        <v>998312</v>
-      </c>
-      <c r="P2" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>392</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>500</v>
-      </c>
-      <c r="T2">
-        <v>998312</v>
-      </c>
-      <c r="U2">
         <v>998312</v>
       </c>
     </row>
@@ -12721,7 +13124,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12735,7 +13138,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="49" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -56,15 +56,16 @@
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
     <sheet name="BlockGlobalClient" sheetId="47" r:id="rId43"/>
     <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId44"/>
-    <sheet name="AmendGlobalClient" sheetId="49" r:id="rId45"/>
-    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId46"/>
-    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId47"/>
-    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId48"/>
-    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId49"/>
-    <sheet name="BlockGlobalVendor" sheetId="54" r:id="rId50"/>
-    <sheet name="BlockCompanyVendor" sheetId="55" r:id="rId51"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId52"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId53"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId45"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId46"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId47"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId48"/>
+    <sheet name="BlockGlobalVendor" sheetId="54" r:id="rId49"/>
+    <sheet name="BlockCompanyVendor" sheetId="55" r:id="rId50"/>
+    <sheet name="AmendGlobalClient" sheetId="49" r:id="rId51"/>
+    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId52"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId53"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId54"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1067">
   <si>
     <t>Description</t>
   </si>
@@ -3207,24 +3208,6 @@
     <t>Brand Name</t>
   </si>
   <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Tax No</t>
-  </si>
-  <si>
-    <t>Company Reg No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter Party BFC </t>
-  </si>
-  <si>
-    <t>India Client</t>
-  </si>
-  <si>
-    <t>123dgjj6789</t>
-  </si>
-  <si>
     <t>Radisson Bengaluru Citi Centre</t>
   </si>
   <si>
@@ -3274,6 +3257,27 @@
   </si>
   <si>
     <t>AARUN AASHIYANA</t>
+  </si>
+  <si>
+    <t>Address_1</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.81</t>
+  </si>
+  <si>
+    <t>Address_2</t>
+  </si>
+  <si>
+    <t>Address_3</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.82</t>
   </si>
 </sst>
 </file>
@@ -4040,7 +4044,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -11235,7 +11239,7 @@
         <v>1041</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11243,7 +11247,7 @@
         <v>1042</v>
       </c>
       <c r="B5" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -11253,89 +11257,6 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="103">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B2">
-        <v>103558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11365,7 +11286,7 @@
         <v>1040</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11381,7 +11302,7 @@
         <v>1041</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11389,7 +11310,7 @@
         <v>1042</v>
       </c>
       <c r="B5" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -11398,7 +11319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11428,7 +11349,7 @@
         <v>1040</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11445,7 +11366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11491,7 +11412,7 @@
         <v>1041</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11499,7 +11420,7 @@
         <v>1042</v>
       </c>
       <c r="B5" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -11508,7 +11429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11551,18 +11472,81 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3">
+        <v>107433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B4" s="107" t="s">
         <v>1056</v>
       </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
       <c r="B5" t="s">
-        <v>1057</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -11814,7 +11798,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11827,7 +11811,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -11835,18 +11819,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>1057</v>
       </c>
       <c r="B3">
-        <v>107433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11868,7 +11852,78 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2">
+        <v>103557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -11876,48 +11931,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="B2">
-        <v>1707</v>
+        <v>103557</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B3">
-        <v>107444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>1065</v>
+        <v>1041</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>1042</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -11926,7 +12009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -12159,7 +12242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Full_Regression/DS_IND_FULL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="49" activeTab="50"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,9 @@
     <sheet name="BlockCompanyClient" sheetId="51" r:id="rId46"/>
     <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId47"/>
     <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId48"/>
-    <sheet name="BlockGlobalVendor" sheetId="54" r:id="rId49"/>
-    <sheet name="BlockCompanyVendor" sheetId="55" r:id="rId50"/>
-    <sheet name="AmendGlobalClient" sheetId="49" r:id="rId51"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId49"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId50"/>
+    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId51"/>
     <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId52"/>
     <sheet name="Agency Users" sheetId="11" r:id="rId53"/>
     <sheet name="SSC Users" sheetId="12" r:id="rId54"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="1053">
   <si>
     <t>Description</t>
   </si>
@@ -1222,18 +1222,12 @@
     <t>1707-J. Walter Thompson Mumbai</t>
   </si>
   <si>
-    <t>RB109-Digital,RB110-Events,RB117-Recharges,RB119-Retainer</t>
-  </si>
-  <si>
     <t>D100-Account Management,D111-Creative,D113-Digital,D116-Finance,D117-Human Resources,D120-Management,D125-Planning</t>
   </si>
   <si>
     <t>B111-Digital</t>
   </si>
   <si>
-    <t>103132003001</t>
-  </si>
-  <si>
     <t>1707_TestAutomationJob</t>
   </si>
   <si>
@@ -2992,102 +2986,12 @@
     <t>1707 Senior Finance (TSTAUTO)</t>
   </si>
   <si>
-    <t>OutwardHSN_1</t>
-  </si>
-  <si>
-    <t>InwardHSN_1</t>
-  </si>
-  <si>
     <t>998312</t>
   </si>
   <si>
-    <t>OutwardHSN_2</t>
-  </si>
-  <si>
-    <t>InwardHSN_2</t>
-  </si>
-  <si>
-    <t>OutwardHSN_3</t>
-  </si>
-  <si>
-    <t>InwardHSN_3</t>
-  </si>
-  <si>
-    <t>OutwardHSN_4</t>
-  </si>
-  <si>
-    <t>InwardHSN_4</t>
-  </si>
-  <si>
-    <t>OutwardHSN_5</t>
-  </si>
-  <si>
-    <t>InwardHSN_5</t>
-  </si>
-  <si>
-    <t>OutwardHSN_6</t>
-  </si>
-  <si>
-    <t>InwardHSN_6</t>
-  </si>
-  <si>
-    <t>OutwardHSN_7</t>
-  </si>
-  <si>
-    <t>InwardHSN_7</t>
-  </si>
-  <si>
-    <t>OutwardHSN_8</t>
-  </si>
-  <si>
-    <t>InwardHSN_8</t>
-  </si>
-  <si>
-    <t>OutwardHSN_9</t>
-  </si>
-  <si>
-    <t>InwardHSN_9</t>
-  </si>
-  <si>
-    <t>OutwardHSN_10</t>
-  </si>
-  <si>
-    <t>InwardHSN_10</t>
-  </si>
-  <si>
-    <t>POS_1</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t>POS_2</t>
-  </si>
-  <si>
-    <t>POS_3</t>
-  </si>
-  <si>
-    <t>POS_4</t>
-  </si>
-  <si>
-    <t>POS_5</t>
-  </si>
-  <si>
-    <t>POS_6</t>
-  </si>
-  <si>
-    <t>POS_7</t>
-  </si>
-  <si>
-    <t>POS_8</t>
-  </si>
-  <si>
-    <t>POS_9</t>
-  </si>
-  <si>
-    <t>POS_10</t>
-  </si>
-  <si>
     <t>Invoice Date</t>
   </si>
   <si>
@@ -3163,9 +3067,6 @@
     <t>02/10/2020</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>Timesheet Employee No</t>
   </si>
   <si>
@@ -3178,27 +3079,6 @@
     <t>1707_AutomationEmpy@gmail.com</t>
   </si>
   <si>
-    <t>1707103535</t>
-  </si>
-  <si>
-    <t>1707103536</t>
-  </si>
-  <si>
-    <t>1707105340</t>
-  </si>
-  <si>
-    <t>1707105341</t>
-  </si>
-  <si>
-    <t>B21707105328</t>
-  </si>
-  <si>
-    <t>Z11707105328</t>
-  </si>
-  <si>
-    <t>Z21707105328</t>
-  </si>
-  <si>
     <t>Client Number</t>
   </si>
   <si>
@@ -3208,76 +3088,154 @@
     <t>Brand Name</t>
   </si>
   <si>
+    <t>103556001</t>
+  </si>
+  <si>
+    <t>Radisson GRT</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>CompanyVendor Number</t>
+  </si>
+  <si>
+    <t>CompanyVendor Name</t>
+  </si>
+  <si>
+    <t>AARUN AASHIYANA</t>
+  </si>
+  <si>
+    <t>Blocked Global Brand No</t>
+  </si>
+  <si>
+    <t>Blocked Global Client No</t>
+  </si>
+  <si>
+    <t>103132</t>
+  </si>
+  <si>
+    <t>103132002</t>
+  </si>
+  <si>
+    <t>Times Of India</t>
+  </si>
+  <si>
+    <t>Product Number</t>
+  </si>
+  <si>
+    <t>103132002001</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>NewCamlinProduct</t>
+  </si>
+  <si>
+    <t>103115001001</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>30 SECONDS OF FAME</t>
+  </si>
+  <si>
+    <t>1707-Wunderman Thompson Mumbai</t>
+  </si>
+  <si>
+    <t>1712-GTB A Unit of Hindustan Thompson Advertising Limited</t>
+  </si>
+  <si>
+    <t>RB108</t>
+  </si>
+  <si>
+    <t>RB108-Design</t>
+  </si>
+  <si>
+    <t>D112</t>
+  </si>
+  <si>
+    <t>D112-Design</t>
+  </si>
+  <si>
+    <t>B127</t>
+  </si>
+  <si>
+    <t>B127-Studio</t>
+  </si>
+  <si>
+    <t>RB108_TM-CP</t>
+  </si>
+  <si>
+    <t>Design-T&amp;M - CP</t>
+  </si>
+  <si>
+    <t>103777002001</t>
+  </si>
+  <si>
+    <t>1712_TestAutomationJob</t>
+  </si>
+  <si>
+    <t>ZZ1712_RB102_TM-CP</t>
+  </si>
+  <si>
+    <t>E1024</t>
+  </si>
+  <si>
+    <t>Banners-Design only</t>
+  </si>
+  <si>
+    <t>1712INVOICE</t>
+  </si>
+  <si>
+    <t>Address_1</t>
+  </si>
+  <si>
+    <t>Address_2</t>
+  </si>
+  <si>
+    <t>Address_3</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>103557001</t>
+  </si>
+  <si>
     <t>Radisson Bengaluru Citi Centre</t>
   </si>
   <si>
-    <t>103557001</t>
-  </si>
-  <si>
-    <t>103132</t>
-  </si>
-  <si>
-    <t>103132002</t>
-  </si>
-  <si>
-    <t>Times Of India</t>
-  </si>
-  <si>
-    <t>Product Number</t>
-  </si>
-  <si>
-    <t>103132002001</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>NewCamlinProduct</t>
-  </si>
-  <si>
-    <t>103115001001</t>
-  </si>
-  <si>
-    <t>Corporate</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Vendor Name</t>
-  </si>
-  <si>
-    <t>30 SECONDS OF FAME</t>
-  </si>
-  <si>
-    <t>CompanyVendor Number</t>
-  </si>
-  <si>
-    <t>CompanyVendor Name</t>
-  </si>
-  <si>
-    <t>AARUN AASHIYANA</t>
-  </si>
-  <si>
-    <t>Address_1</t>
-  </si>
-  <si>
     <t>No.2  Ward No.81</t>
   </si>
   <si>
-    <t>Address_2</t>
-  </si>
-  <si>
-    <t>Address_3</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>No.2  Ward No.82</t>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>RB108_FP-CP</t>
+  </si>
+  <si>
+    <t>Design-Fixed Price - CP</t>
+  </si>
+  <si>
+    <t>103167006001</t>
+  </si>
+  <si>
+    <t>1707Invoice2</t>
+  </si>
+  <si>
+    <t>01/03/2020</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
 </sst>
 </file>
@@ -3551,7 +3509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3616,9 +3574,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3751,12 +3706,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4045,7 +4000,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4055,26 +4010,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75">
+      <c r="B1" s="74">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4113,26 +4068,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="66"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1020</v>
+        <v>988</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4142,7 +4097,7 @@
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -4156,7 +4111,7 @@
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -4170,11 +4125,11 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -4182,10 +4137,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="67"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -4199,11 +4154,11 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1021</v>
+        <v>989</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4214,7 +4169,7 @@
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4228,11 +4183,11 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="102" t="s">
-        <v>1032</v>
+      <c r="B9" s="101" t="s">
+        <v>999</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4242,7 +4197,7 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -4257,7 +4212,7 @@
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -4272,7 +4227,7 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -4287,7 +4242,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -4299,25 +4254,25 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="68"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="B14" s="45" t="s">
+        <v>990</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="56" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -4331,26 +4286,26 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="64" t="s">
+        <v>991</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1024</v>
+        <v>992</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4358,14 +4313,14 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="56" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1024</v>
+        <v>992</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4373,10 +4328,10 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="56" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -4390,22 +4345,22 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="59" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="B20" s="58" t="s">
+        <v>993</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -4420,11 +4375,11 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1026</v>
+        <v>994</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -4462,55 +4417,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52">
+      <c r="B1" s="51">
         <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="52">
         <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="52">
         <v>130710080</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4518,7 +4473,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -4526,10 +4481,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="52">
         <v>1307</v>
       </c>
     </row>
@@ -4564,23 +4519,23 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="26"/>
       <c r="E1" s="31"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1020</v>
+        <v>988</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4628,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
@@ -4637,7 +4592,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="67"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -4659,7 +4614,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1021</v>
+        <v>989</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4690,8 +4645,8 @@
       <c r="A9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="102" t="s">
-        <v>1032</v>
+      <c r="B9" s="101" t="s">
+        <v>999</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4764,23 +4719,23 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="68"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>1022</v>
+      <c r="B14" s="45" t="s">
+        <v>990</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
@@ -4802,24 +4757,24 @@
       <c r="A16" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>1023</v>
+      <c r="B16" s="64" t="s">
+        <v>991</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1024</v>
+        <v>992</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4828,14 +4783,14 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="51"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1024</v>
+        <v>992</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4844,7 +4799,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="51"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -4866,17 +4821,17 @@
       <c r="A20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="59" t="s">
-        <v>1025</v>
+      <c r="B20" s="58" t="s">
+        <v>993</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
@@ -4899,7 +4854,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1026</v>
+        <v>994</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -4931,7 +4886,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1021</v>
+        <v>989</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4947,7 +4902,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -4998,7 +4953,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -5006,7 +4961,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>218</v>
       </c>
       <c r="B2" s="16">
@@ -5014,7 +4969,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -5022,7 +4977,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5030,7 +4985,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5038,7 +4993,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5046,7 +5001,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -5054,7 +5009,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -5062,7 +5017,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5070,7 +5025,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5078,7 +5033,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -5086,7 +5041,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -5094,7 +5049,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="90" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -5128,62 +5083,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="52">
+      <c r="C1" s="51">
         <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="52">
         <v>1307</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="52">
         <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -5194,7 +5149,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -5205,13 +5160,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="52">
         <v>1307</v>
       </c>
     </row>
@@ -5359,7 +5314,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5373,22 +5328,20 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>1034</v>
-      </c>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5416,7 +5369,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31">
@@ -5466,7 +5419,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1" t="s">
@@ -5529,7 +5482,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31">
@@ -5568,10 +5521,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK10"/>
+  <dimension ref="A1:FK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5760,13 +5713,13 @@
       <c r="A2" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="61"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5785,27 +5738,37 @@
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1019</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1029</v>
+        <v>996</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>1031</v>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -5832,31 +5795,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>250</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>392</v>
+      <c r="B4" s="61" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -5883,31 +5846,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>250</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>392</v>
+      <c r="B4" s="61" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -5921,60 +5884,61 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.140625" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="11.140625" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="11.140625" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="11.140625" customWidth="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="11.140625" customWidth="1"/>
-    <col min="56" max="57" width="11.140625" customWidth="1"/>
-    <col min="62" max="63" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.140625" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="11.140625" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.140625" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="11.140625" customWidth="1"/>
+    <col min="57" max="58" width="11.140625" customWidth="1"/>
+    <col min="63" max="64" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
@@ -5985,212 +5949,202 @@
         <v>214</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>236</v>
-      </c>
       <c r="H1" s="27" t="s">
-        <v>971</v>
+        <v>145</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="J1" s="27" t="s">
+        <v>958</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>237</v>
-      </c>
       <c r="N1" s="27" t="s">
-        <v>974</v>
+        <v>149</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>975</v>
+        <v>957</v>
       </c>
       <c r="P1" s="27" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>238</v>
-      </c>
       <c r="T1" s="27" t="s">
-        <v>976</v>
+        <v>153</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="V1" s="27" t="s">
+        <v>955</v>
+      </c>
+      <c r="W1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="27" t="s">
-        <v>239</v>
-      </c>
       <c r="Z1" s="27" t="s">
-        <v>978</v>
+        <v>157</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="AB1" s="27" t="s">
+        <v>953</v>
+      </c>
+      <c r="AC1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AE1" s="27" t="s">
-        <v>240</v>
-      </c>
       <c r="AF1" s="27" t="s">
-        <v>980</v>
+        <v>161</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
       <c r="AH1" s="27" t="s">
+        <v>950</v>
+      </c>
+      <c r="AI1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="AK1" s="27" t="s">
-        <v>241</v>
-      </c>
       <c r="AL1" s="27" t="s">
-        <v>982</v>
+        <v>165</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="AN1" s="27" t="s">
+        <v>948</v>
+      </c>
+      <c r="AO1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AP1" s="27" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="AQ1" s="27" t="s">
-        <v>242</v>
-      </c>
       <c r="AR1" s="27" t="s">
-        <v>984</v>
+        <v>169</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>985</v>
+        <v>947</v>
       </c>
       <c r="AT1" s="27" t="s">
+        <v>946</v>
+      </c>
+      <c r="AU1" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="AV1" s="27" t="s">
+      <c r="AW1" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="AW1" s="27" t="s">
-        <v>243</v>
-      </c>
       <c r="AX1" s="27" t="s">
-        <v>986</v>
+        <v>173</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>987</v>
+        <v>945</v>
       </c>
       <c r="AZ1" s="27" t="s">
+        <v>944</v>
+      </c>
+      <c r="BA1" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BB1" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="BB1" s="27" t="s">
+      <c r="BC1" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="BC1" s="27" t="s">
-        <v>244</v>
-      </c>
       <c r="BD1" s="27" t="s">
-        <v>988</v>
+        <v>177</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>989</v>
+        <v>942</v>
       </c>
       <c r="BF1" s="27" t="s">
+        <v>943</v>
+      </c>
+      <c r="BG1" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="BH1" s="27" t="s">
+      <c r="BI1" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="BI1" s="27" t="s">
-        <v>245</v>
-      </c>
       <c r="BJ1" s="27" t="s">
-        <v>990</v>
+        <v>181</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+        <v>941</v>
+      </c>
+      <c r="BL1" s="27" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="60">
         <v>1707</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>973</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>973</v>
-      </c>
+      <c r="B2" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60" t="s">
+        <v>970</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6203,60 +6157,61 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BU2"/>
+  <dimension ref="A1:BL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11.140625" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="11.140625" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="11.140625" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="11.140625" customWidth="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="11.140625" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="11.140625" customWidth="1"/>
-    <col min="64" max="66" width="11.140625" customWidth="1"/>
-    <col min="71" max="73" width="11.140625" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.140625" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="11.140625" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.140625" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="11.140625" customWidth="1"/>
+    <col min="57" max="58" width="11.140625" customWidth="1"/>
+    <col min="63" max="64" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
@@ -6267,25 +6222,25 @@
         <v>214</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>236</v>
-      </c>
       <c r="H1" s="27" t="s">
-        <v>971</v>
+        <v>145</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>992</v>
+        <v>958</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>146</v>
@@ -6297,216 +6252,197 @@
         <v>148</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>975</v>
+        <v>956</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>994</v>
+        <v>150</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>238</v>
+        <v>954</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>977</v>
+        <v>154</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>995</v>
+        <v>155</v>
       </c>
       <c r="Y1" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>156</v>
+        <v>952</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>239</v>
+        <v>953</v>
       </c>
       <c r="AC1" s="27" t="s">
-        <v>978</v>
+        <v>158</v>
       </c>
       <c r="AD1" s="27" t="s">
-        <v>979</v>
+        <v>159</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>996</v>
+        <v>160</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>159</v>
+        <v>951</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>160</v>
+        <v>950</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>980</v>
+        <v>163</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>981</v>
+        <v>164</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>997</v>
+        <v>165</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>162</v>
+        <v>949</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>163</v>
+        <v>948</v>
       </c>
       <c r="AO1" s="27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AP1" s="27" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>982</v>
+        <v>168</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>983</v>
+        <v>169</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>998</v>
+        <v>947</v>
       </c>
       <c r="AT1" s="27" t="s">
-        <v>166</v>
+        <v>946</v>
       </c>
       <c r="AU1" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AV1" s="27" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AW1" s="27" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>984</v>
+        <v>173</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>985</v>
+        <v>945</v>
       </c>
       <c r="AZ1" s="27" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="BA1" s="27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BB1" s="27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="BC1" s="27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>986</v>
+        <v>942</v>
       </c>
       <c r="BF1" s="27" t="s">
-        <v>987</v>
+        <v>943</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>1000</v>
+        <v>178</v>
       </c>
       <c r="BH1" s="27" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="BI1" s="27" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>244</v>
+        <v>941</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>988</v>
-      </c>
-      <c r="BM1" s="27" t="s">
-        <v>989</v>
-      </c>
-      <c r="BN1" s="27" t="s">
-        <v>1001</v>
-      </c>
-      <c r="BO1" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="BP1" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ1" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="BR1" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="BS1" s="27" t="s">
-        <v>990</v>
-      </c>
-      <c r="BT1" s="27" t="s">
-        <v>991</v>
-      </c>
-      <c r="BU1" s="27" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="60">
         <v>1707</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60" t="s">
+        <v>970</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1712</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G3">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>500</v>
       </c>
-      <c r="H2" s="61" t="s">
-        <v>973</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>973</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>993</v>
+      <c r="I3" s="60" t="s">
+        <v>969</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -6533,20 +6469,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>1035</v>
-      </c>
+      <c r="B2" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6562,7 +6496,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6572,20 +6506,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>1036</v>
-      </c>
+      <c r="B2" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6654,7 +6586,7 @@
       <c r="A6" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="92">
         <v>43783</v>
       </c>
     </row>
@@ -6708,7 +6640,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="30">
@@ -6779,7 +6711,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -6811,18 +6743,18 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6850,50 +6782,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="82" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6921,15 +6853,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B2" s="30">
         <v>83.62</v>
@@ -6937,7 +6869,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B3" s="30">
         <v>1.39</v>
@@ -6945,7 +6877,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B4" s="30">
         <v>4.72</v>
@@ -6953,7 +6885,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B5" s="30">
         <v>323363078.55000001</v>
@@ -6961,7 +6893,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B6" s="30">
         <v>323325.90999999997</v>
@@ -6969,7 +6901,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B7" s="30">
         <v>1.1100000000000001</v>
@@ -6985,7 +6917,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B9" s="30">
         <v>4.55</v>
@@ -6993,7 +6925,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B10" s="30">
         <v>135.61000000000001</v>
@@ -7001,7 +6933,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B11" s="30">
         <v>589.11</v>
@@ -7009,7 +6941,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B12" s="30">
         <v>2.19</v>
@@ -7017,7 +6949,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B13" s="30">
         <v>430.35</v>
@@ -7025,7 +6957,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B14" s="30">
         <v>53.58</v>
@@ -7033,170 +6965,170 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,879 +7136,879 @@
         <v>117</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -8103,50 +8035,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="87" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8161,10 +8093,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8187,7 +8119,7 @@
         <v>268</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1003</v>
+        <v>971</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>258</v>
@@ -8227,19 +8159,33 @@
       <c r="A2">
         <v>1707</v>
       </c>
-      <c r="B2">
-        <v>1707105342</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>394</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="61" t="s">
+      <c r="C2" s="60" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1712</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" t="s">
         <v>1037</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -8254,10 +8200,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8265,21 +8211,22 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="C1">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1038</v>
-      </c>
+      <c r="B2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8295,7 +8242,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8304,7 +8251,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1">
@@ -8312,12 +8259,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1039</v>
-      </c>
+      <c r="B2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8362,7 +8307,7 @@
       <c r="A3" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8370,7 +8315,7 @@
       <c r="A4" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8399,10 +8344,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8479,7 +8424,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -8505,7 +8450,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>185</v>
       </c>
       <c r="B2" s="30">
@@ -8598,7 +8543,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -8630,7 +8575,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>185</v>
       </c>
       <c r="B2" s="30">
@@ -8687,7 +8632,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -8719,7 +8664,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -8793,28 +8738,28 @@
         <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>347</v>
@@ -8822,47 +8767,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
         <v>347</v>
@@ -8870,183 +8815,183 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B34" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B35" t="s">
         <v>347</v>
@@ -9054,31 +8999,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B37" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B39" t="s">
         <v>347</v>
@@ -9086,7 +9031,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B40" t="s">
         <v>347</v>
@@ -9094,71 +9039,71 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B41" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B42" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B43" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B45" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B46" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B48" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B49" t="s">
         <v>347</v>
@@ -9166,191 +9111,191 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B52" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B54" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B57" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B58" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B59" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B62" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B63" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B64" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B66" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B67" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B68" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B69" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B70" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B72" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B73" t="s">
         <v>347</v>
@@ -9358,15 +9303,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s">
         <v>347</v>
@@ -9374,183 +9319,183 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B77" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B78" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B79" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B80" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B82" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B84" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B85" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B86" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B87" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B88" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B89" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B90" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B91" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B92" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B93" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B95" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B96" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B98" t="s">
         <v>347</v>
@@ -9558,359 +9503,359 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B100" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B101" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B102" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B103" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B104" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B105" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B106" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B107" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B108" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B109" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B110" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B111" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B112" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B113" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B115" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B116" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B117" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B118" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B119" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B120" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B121" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B122" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B124" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B125" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B126" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B127" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B128" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B129" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B130" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B131" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B132" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B133" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B134" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B135" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B136" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B137" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B138" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B139" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B140" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B141" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B142" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B143" t="s">
         <v>347</v>
@@ -9918,47 +9863,47 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B144" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B145" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B146" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B147" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B148" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B149" t="s">
         <v>347</v>
@@ -9966,159 +9911,159 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B150" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B151" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B152" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B154" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B155" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B156" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B157" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B158" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B159" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B160" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B161" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B162" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B163" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B164" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B165" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B166" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B167" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B168" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B169" t="s">
         <v>347</v>
@@ -10126,47 +10071,47 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B170" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B171" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B172" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B173" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B174" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B175" t="s">
         <v>347</v>
@@ -10174,15 +10119,15 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B176" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B177" t="s">
         <v>347</v>
@@ -10190,63 +10135,63 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B178" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B179" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B180" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B181" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B182" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B183" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B184" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B185" t="s">
         <v>347</v>
@@ -10254,47 +10199,47 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B186" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B187" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B188" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B189" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B190" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B191" t="s">
         <v>347</v>
@@ -10302,135 +10247,135 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B192" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B193" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B194" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B195" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B196" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B197" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B198" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B199" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B201" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B202" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B203" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B204" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B205" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B206" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B207" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B208" t="s">
         <v>347</v>
@@ -10438,167 +10383,167 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B209" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B210" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B211" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B212" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B213" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B214" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B215" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B216" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B217" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B218" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B219" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B220" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B221" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B222" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B223" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B224" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B225" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B226" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B227" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B228" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B229" t="s">
         <v>347</v>
@@ -10606,71 +10551,71 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B230" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B231" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B232" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B233" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B234" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B235" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B236" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B237" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B238" t="s">
         <v>347</v>
@@ -10678,47 +10623,47 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B239" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B240" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B241" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B242" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B243" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B244" t="s">
         <v>347</v>
@@ -10726,47 +10671,47 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B245" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B246" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B247" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B248" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B249" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B250" t="s">
         <v>347</v>
@@ -10774,31 +10719,31 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B251" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B252" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B253" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B254" t="s">
         <v>347</v>
@@ -10829,10 +10774,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>363</v>
       </c>
     </row>
@@ -10908,10 +10853,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>363</v>
       </c>
     </row>
@@ -11116,16 +11061,16 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="93">
         <v>1319</v>
       </c>
-      <c r="C2" s="95">
+      <c r="C2" s="94">
         <v>131915</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="60">
         <v>1319200043</v>
       </c>
       <c r="E2" t="s">
@@ -11155,7 +11100,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11164,19 +11109,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="B2">
-        <v>103557</v>
+        <v>103556</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11184,7 +11129,7 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -11201,29 +11146,29 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="B2">
-        <v>103557</v>
+        <v>103556</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11231,23 +11176,23 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>1044</v>
+        <v>1001</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1042</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>1043</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -11264,7 +11209,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11274,43 +11219,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>1045</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>395</v>
+      <c r="B3" s="60" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>1046</v>
+        <v>1001</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1042</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>1047</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -11327,7 +11272,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11337,27 +11282,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>391</v>
+      <c r="B1" s="51" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>1045</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>395</v>
+      <c r="B3" s="60" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -11374,7 +11319,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11384,16 +11329,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="1">
         <v>103115</v>
@@ -11404,23 +11349,23 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>1052</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1042</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>1053</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -11437,7 +11382,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11447,16 +11392,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="106">
         <v>103132</v>
@@ -11467,23 +11412,23 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1048</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>1049</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1050</v>
+        <v>1016</v>
       </c>
       <c r="B5" t="s">
-        <v>1051</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -11500,7 +11445,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11510,7 +11455,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1">
@@ -11519,7 +11464,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1054</v>
+        <v>1005</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -11535,10 +11480,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>1056</v>
+        <v>1020</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11546,7 +11491,7 @@
         <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -11562,15 +11507,15 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" style="30" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
   </cols>
@@ -11582,8 +11527,10 @@
       <c r="B1" s="2">
         <v>1707</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="2">
+        <v>1712</v>
+      </c>
+      <c r="D1" s="68"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11593,18 +11540,22 @@
       <c r="B2" s="7">
         <v>1707</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7">
+        <v>1712</v>
+      </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="70"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>1022</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1023</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
@@ -11615,7 +11566,9 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
@@ -11624,9 +11577,11 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>1024</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1024</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
@@ -11635,9 +11590,11 @@
         <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>1025</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1025</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
@@ -11648,7 +11605,9 @@
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
@@ -11659,7 +11618,9 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="32"/>
       <c r="E8" s="8"/>
     </row>
@@ -11670,7 +11631,9 @@
       <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>1026</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
@@ -11679,9 +11642,11 @@
         <v>56</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>381</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1027</v>
+      </c>
       <c r="D10" s="32"/>
       <c r="E10" s="8"/>
     </row>
@@ -11692,7 +11657,9 @@
       <c r="B11" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>1028</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
@@ -11701,9 +11668,11 @@
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C12" s="8"/>
+        <v>382</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1029</v>
+      </c>
       <c r="D12" s="32"/>
       <c r="E12" s="8"/>
     </row>
@@ -11712,20 +11681,24 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>1047</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1030</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>1048</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1031</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="32"/>
     </row>
@@ -11734,20 +11707,24 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>1049</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1032</v>
+      </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="71"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="32"/>
+        <v>383</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>1033</v>
+      </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
     </row>
@@ -11755,28 +11732,28 @@
       <c r="A17" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11802,7 +11779,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1">
@@ -11811,7 +11788,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1054</v>
+        <v>1005</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -11819,7 +11796,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1057</v>
+        <v>1006</v>
       </c>
       <c r="B3">
         <v>107444</v>
@@ -11827,10 +11804,10 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>1059</v>
+        <v>1007</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11838,7 +11815,7 @@
         <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -11854,8 +11831,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11864,16 +11841,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>103557</v>
@@ -11884,35 +11861,35 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
       <c r="B4" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -11923,6 +11900,9 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11936,16 +11916,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>103557</v>
@@ -11956,51 +11936,51 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>1044</v>
+        <v>1001</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1042</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
       <c r="B6" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -12028,213 +12008,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="39">
+      <c r="B1" s="38">
         <v>1707</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="26"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
+        <v>960</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>961</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>962</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="97" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="96" t="s">
         <v>963</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="97" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="96" t="s">
         <v>964</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="97" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="96" t="s">
         <v>965</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="97" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="96" t="s">
         <v>966</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="97" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="96" t="s">
         <v>967</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="97" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="97" t="s">
         <v>968</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>969</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>970</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12250,7 +12230,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12260,123 +12240,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>1004</v>
+      <c r="B2" s="34" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>1005</v>
+      <c r="B3" s="34" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>1006</v>
+      <c r="B4" s="34" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>1007</v>
+      <c r="B5" s="34" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>1008</v>
+      <c r="B6" s="34" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>1009</v>
+      <c r="B7" s="34" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>1010</v>
+      <c r="B8" s="34" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>1011</v>
+      <c r="B9" s="34" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>1012</v>
+      <c r="B10" s="34" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>1013</v>
+      <c r="B11" s="34" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>1014</v>
+      <c r="B12" s="34" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>1015</v>
+      <c r="B13" s="34" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>1016</v>
+      <c r="B14" s="34" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="101" t="s">
-        <v>1017</v>
+      <c r="B15" s="100" t="s">
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -12398,14 +12378,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="50" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31">
@@ -12416,7 +12396,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
@@ -12427,7 +12407,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -12438,14 +12418,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>210</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -12456,7 +12436,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -12467,40 +12447,40 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -12511,18 +12491,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -12533,18 +12513,18 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -12555,10 +12535,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -12566,24 +12546,24 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="49" t="s">
         <v>213</v>
       </c>
     </row>
@@ -12598,10 +12578,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12651,7 +12631,7 @@
         <v>214</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>142</v>
@@ -12666,10 +12646,10 @@
         <v>145</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>146</v>
@@ -12684,10 +12664,10 @@
         <v>149</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>150</v>
@@ -12702,10 +12682,10 @@
         <v>153</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="V1" s="27" t="s">
         <v>154</v>
@@ -12720,10 +12700,10 @@
         <v>157</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>158</v>
@@ -12738,10 +12718,10 @@
         <v>161</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AH1" s="27" t="s">
         <v>162</v>
@@ -12756,10 +12736,10 @@
         <v>165</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>166</v>
@@ -12774,10 +12754,10 @@
         <v>169</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>170</v>
@@ -12792,10 +12772,10 @@
         <v>173</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>174</v>
@@ -12810,10 +12790,10 @@
         <v>177</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="BF1" s="27" t="s">
         <v>178</v>
@@ -12828,27 +12808,25 @@
         <v>181</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>387</v>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60" t="s">
+        <v>385</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -12863,10 +12841,10 @@
         <v>998312</v>
       </c>
       <c r="J2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -12879,6 +12857,38 @@
       </c>
       <c r="O2">
         <v>998312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1712</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>998312</v>
+      </c>
+      <c r="I3">
+        <v>998312</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -13081,7 +13091,7 @@
       <c r="A2">
         <v>1307</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>246</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -13119,7 +13129,7 @@
       <c r="A3">
         <v>1284</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>222</v>
       </c>
       <c r="C3" t="s">
@@ -13157,7 +13167,7 @@
       <c r="A4">
         <v>1205</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>229</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -13193,7 +13203,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13207,29 +13217,26 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>128</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
